--- a/contratos/contratos-2-2013.xlsx
+++ b/contratos/contratos-2-2013.xlsx
@@ -625,7 +625,7 @@
     <t>PEREZ RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -694,13 +694,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>ASOCIACION DE BOMBEROS VOLUNTARIOS  DE CONCEPCION DEL URUGUAY</t>
@@ -724,7 +724,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>ARGACHA HIRINSON</t>
@@ -1240,553 +1240,553 @@
     <t>15</t>
   </si>
   <si>
-    <t>16.899,00</t>
-  </si>
-  <si>
-    <t>15.952,60</t>
-  </si>
-  <si>
-    <t>98.783,35</t>
-  </si>
-  <si>
-    <t>72.328,08</t>
-  </si>
-  <si>
-    <t>28.831,64</t>
-  </si>
-  <si>
-    <t>856,00</t>
-  </si>
-  <si>
-    <t>10.287,48</t>
-  </si>
-  <si>
-    <t>1.111,50</t>
-  </si>
-  <si>
-    <t>137,94</t>
-  </si>
-  <si>
-    <t>4.890,52</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>1.270,00</t>
-  </si>
-  <si>
-    <t>20,70</t>
-  </si>
-  <si>
-    <t>19,44</t>
-  </si>
-  <si>
-    <t>119,42</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>268,00</t>
-  </si>
-  <si>
-    <t>11,99</t>
-  </si>
-  <si>
-    <t>645,00</t>
-  </si>
-  <si>
-    <t>18.842,94</t>
-  </si>
-  <si>
-    <t>1.152,64</t>
-  </si>
-  <si>
-    <t>3.213,60</t>
-  </si>
-  <si>
-    <t>283,22</t>
-  </si>
-  <si>
-    <t>16.350,00</t>
-  </si>
-  <si>
-    <t>144,11</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>2.262,00</t>
-  </si>
-  <si>
-    <t>59,85</t>
-  </si>
-  <si>
-    <t>19.213,90</t>
-  </si>
-  <si>
-    <t>591,53</t>
-  </si>
-  <si>
-    <t>3.322,00</t>
-  </si>
-  <si>
-    <t>6.999,00</t>
-  </si>
-  <si>
-    <t>8.595,11</t>
-  </si>
-  <si>
-    <t>3.547,94</t>
-  </si>
-  <si>
-    <t>1.011,56</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>438,00</t>
-  </si>
-  <si>
-    <t>1.048.000,00</t>
-  </si>
-  <si>
-    <t>2.085,09</t>
-  </si>
-  <si>
-    <t>3.460,80</t>
-  </si>
-  <si>
-    <t>4.190,00</t>
-  </si>
-  <si>
-    <t>15.386,39</t>
-  </si>
-  <si>
-    <t>714,16</t>
-  </si>
-  <si>
-    <t>121,40</t>
-  </si>
-  <si>
-    <t>5.877,00</t>
-  </si>
-  <si>
-    <t>7.232,00</t>
-  </si>
-  <si>
-    <t>4.126,13</t>
-  </si>
-  <si>
-    <t>26,14</t>
-  </si>
-  <si>
-    <t>1.508,04</t>
-  </si>
-  <si>
-    <t>772,72</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>592,28</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>53.460,00</t>
-  </si>
-  <si>
-    <t>2.883,13</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>9.588,00</t>
-  </si>
-  <si>
-    <t>115,92</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.085,75</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>2.302,00</t>
-  </si>
-  <si>
-    <t>2.833,50</t>
-  </si>
-  <si>
-    <t>558,00</t>
-  </si>
-  <si>
-    <t>2.145,00</t>
-  </si>
-  <si>
-    <t>5.086,88</t>
-  </si>
-  <si>
-    <t>5.085,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>38.190,00</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>194.670,00</t>
-  </si>
-  <si>
-    <t>0,63</t>
-  </si>
-  <si>
-    <t>68,94</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>7,42</t>
-  </si>
-  <si>
-    <t>8,60</t>
-  </si>
-  <si>
-    <t>42,46</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>65,46</t>
-  </si>
-  <si>
-    <t>3.171,84</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>102,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>3.260,50</t>
-  </si>
-  <si>
-    <t>267,42</t>
-  </si>
-  <si>
-    <t>302,32</t>
-  </si>
-  <si>
-    <t>67,83</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>2.315,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>4.284,00</t>
-  </si>
-  <si>
-    <t>34.936,00</t>
-  </si>
-  <si>
-    <t>1.492,00</t>
-  </si>
-  <si>
-    <t>11.192,00</t>
-  </si>
-  <si>
-    <t>34.300,00</t>
-  </si>
-  <si>
-    <t>14.250,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>10.100,00</t>
-  </si>
-  <si>
-    <t>5.501,73</t>
-  </si>
-  <si>
-    <t>46,79</t>
-  </si>
-  <si>
-    <t>49,00</t>
-  </si>
-  <si>
-    <t>64,40</t>
-  </si>
-  <si>
-    <t>10.697,78</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>5.880,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>2.541,50</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>11.981,37</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>2.050,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>10.840,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>19.540,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>372,46</t>
-  </si>
-  <si>
-    <t>1.597,00</t>
-  </si>
-  <si>
-    <t>245,60</t>
-  </si>
-  <si>
-    <t>1.607,75</t>
-  </si>
-  <si>
-    <t>5.909,00</t>
-  </si>
-  <si>
-    <t>705,00</t>
-  </si>
-  <si>
-    <t>789,00</t>
-  </si>
-  <si>
-    <t>10.950,00</t>
-  </si>
-  <si>
-    <t>11.090,00</t>
-  </si>
-  <si>
-    <t>231,24</t>
-  </si>
-  <si>
-    <t>1.569,79</t>
-  </si>
-  <si>
-    <t>688,00</t>
-  </si>
-  <si>
-    <t>4.839,70</t>
-  </si>
-  <si>
-    <t>1.246,05</t>
-  </si>
-  <si>
-    <t>2.138,00</t>
-  </si>
-  <si>
-    <t>159,50</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>6.447,20</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>212,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>100,95</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>5.823,00</t>
-  </si>
-  <si>
-    <t>4.860,52</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>6.023,92</t>
-  </si>
-  <si>
-    <t>4.805,00</t>
-  </si>
-  <si>
-    <t>6.359,70</t>
-  </si>
-  <si>
-    <t>414,60</t>
-  </si>
-  <si>
-    <t>1.016,40</t>
-  </si>
-  <si>
-    <t>1.614,55</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>398,00</t>
-  </si>
-  <si>
-    <t>1.510,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>25.652,00</t>
-  </si>
-  <si>
-    <t>136.500,00</t>
-  </si>
-  <si>
-    <t>34.800,00</t>
-  </si>
-  <si>
-    <t>137.500,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>264.871,35</t>
-  </si>
-  <si>
-    <t>77.440,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>12.769,00</t>
+    <t>16899.00</t>
+  </si>
+  <si>
+    <t>15952.60</t>
+  </si>
+  <si>
+    <t>98783.35</t>
+  </si>
+  <si>
+    <t>72328.08</t>
+  </si>
+  <si>
+    <t>28831.64</t>
+  </si>
+  <si>
+    <t>856.00</t>
+  </si>
+  <si>
+    <t>10287.48</t>
+  </si>
+  <si>
+    <t>1111.50</t>
+  </si>
+  <si>
+    <t>137.94</t>
+  </si>
+  <si>
+    <t>4890.52</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>1270.00</t>
+  </si>
+  <si>
+    <t>20.70</t>
+  </si>
+  <si>
+    <t>19.44</t>
+  </si>
+  <si>
+    <t>119.42</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>268.00</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>645.00</t>
+  </si>
+  <si>
+    <t>18842.94</t>
+  </si>
+  <si>
+    <t>1152.64</t>
+  </si>
+  <si>
+    <t>3213.60</t>
+  </si>
+  <si>
+    <t>283.22</t>
+  </si>
+  <si>
+    <t>16350.00</t>
+  </si>
+  <si>
+    <t>144.11</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>2262.00</t>
+  </si>
+  <si>
+    <t>59.85</t>
+  </si>
+  <si>
+    <t>19213.90</t>
+  </si>
+  <si>
+    <t>591.53</t>
+  </si>
+  <si>
+    <t>3322.00</t>
+  </si>
+  <si>
+    <t>6999.00</t>
+  </si>
+  <si>
+    <t>8595.11</t>
+  </si>
+  <si>
+    <t>3547.94</t>
+  </si>
+  <si>
+    <t>1011.56</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>438.00</t>
+  </si>
+  <si>
+    <t>1048000.00</t>
+  </si>
+  <si>
+    <t>2085.09</t>
+  </si>
+  <si>
+    <t>3460.80</t>
+  </si>
+  <si>
+    <t>4190.00</t>
+  </si>
+  <si>
+    <t>15386.39</t>
+  </si>
+  <si>
+    <t>714.16</t>
+  </si>
+  <si>
+    <t>121.40</t>
+  </si>
+  <si>
+    <t>5877.00</t>
+  </si>
+  <si>
+    <t>7232.00</t>
+  </si>
+  <si>
+    <t>4126.13</t>
+  </si>
+  <si>
+    <t>26.14</t>
+  </si>
+  <si>
+    <t>1508.04</t>
+  </si>
+  <si>
+    <t>772.72</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>592.28</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>53460.00</t>
+  </si>
+  <si>
+    <t>2883.13</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>9588.00</t>
+  </si>
+  <si>
+    <t>115.92</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2085.75</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>2302.00</t>
+  </si>
+  <si>
+    <t>2833.50</t>
+  </si>
+  <si>
+    <t>558.00</t>
+  </si>
+  <si>
+    <t>2145.00</t>
+  </si>
+  <si>
+    <t>5086.88</t>
+  </si>
+  <si>
+    <t>5085.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>38190.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>194670.00</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>68.94</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>8.60</t>
+  </si>
+  <si>
+    <t>42.46</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>65.46</t>
+  </si>
+  <si>
+    <t>3171.84</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>3260.50</t>
+  </si>
+  <si>
+    <t>267.42</t>
+  </si>
+  <si>
+    <t>302.32</t>
+  </si>
+  <si>
+    <t>67.83</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>2315.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>4284.00</t>
+  </si>
+  <si>
+    <t>34936.00</t>
+  </si>
+  <si>
+    <t>1492.00</t>
+  </si>
+  <si>
+    <t>11192.00</t>
+  </si>
+  <si>
+    <t>34300.00</t>
+  </si>
+  <si>
+    <t>14250.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>10100.00</t>
+  </si>
+  <si>
+    <t>5501.73</t>
+  </si>
+  <si>
+    <t>46.79</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>64.40</t>
+  </si>
+  <si>
+    <t>10697.78</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>5880.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>2541.50</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>11981.37</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>2050.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>10840.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>19540.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>372.46</t>
+  </si>
+  <si>
+    <t>1597.00</t>
+  </si>
+  <si>
+    <t>245.60</t>
+  </si>
+  <si>
+    <t>1607.75</t>
+  </si>
+  <si>
+    <t>5909.00</t>
+  </si>
+  <si>
+    <t>705.00</t>
+  </si>
+  <si>
+    <t>789.00</t>
+  </si>
+  <si>
+    <t>10950.00</t>
+  </si>
+  <si>
+    <t>11090.00</t>
+  </si>
+  <si>
+    <t>231.24</t>
+  </si>
+  <si>
+    <t>1569.79</t>
+  </si>
+  <si>
+    <t>688.00</t>
+  </si>
+  <si>
+    <t>4839.70</t>
+  </si>
+  <si>
+    <t>1246.05</t>
+  </si>
+  <si>
+    <t>2138.00</t>
+  </si>
+  <si>
+    <t>159.50</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>6447.20</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>212.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>100.95</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>5823.00</t>
+  </si>
+  <si>
+    <t>4860.52</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>6023.92</t>
+  </si>
+  <si>
+    <t>4805.00</t>
+  </si>
+  <si>
+    <t>6359.70</t>
+  </si>
+  <si>
+    <t>414.60</t>
+  </si>
+  <si>
+    <t>1016.40</t>
+  </si>
+  <si>
+    <t>1614.55</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>1510.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>25652.00</t>
+  </si>
+  <si>
+    <t>136500.00</t>
+  </si>
+  <si>
+    <t>34800.00</t>
+  </si>
+  <si>
+    <t>137500.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>264871.35</t>
+  </si>
+  <si>
+    <t>77440.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>12769.00</t>
   </si>
 </sst>
 </file>
